--- a/education/education-provider/src/main/webapp/templates/供应商.xlsx
+++ b/education/education-provider/src/main/webapp/templates/供应商.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16410" windowHeight="7245"/>
+    <workbookView windowWidth="16410" windowHeight="7245" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="供货商" sheetId="1" r:id="rId1"/>
@@ -233,6 +233,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">导入说明：
 </t>
     </r>
@@ -240,6 +246,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>1、红色为必填，黑色选填，尽量填完整！
@@ -282,26 +289,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -331,36 +324,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -384,6 +347,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -391,48 +385,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -452,27 +417,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -484,6 +476,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -503,168 +657,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -702,11 +694,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -722,21 +720,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -762,16 +745,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -783,10 +775,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -795,16 +787,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -813,115 +805,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -929,22 +921,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -953,8 +945,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1308,21 +1300,22 @@
   <sheetPr/>
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J$1:J$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="25.875" customWidth="1"/>
     <col min="2" max="2" width="30.375" customWidth="1"/>
-    <col min="3" max="4" width="18.25"/>
-    <col min="5" max="5" width="17.125"/>
-    <col min="6" max="7" width="18.25"/>
-    <col min="10" max="10" width="12.625"/>
+    <col min="3" max="4" width="18.25" style="4"/>
+    <col min="5" max="5" width="17.125" style="4"/>
+    <col min="6" max="7" width="18.25" style="4"/>
+    <col min="8" max="8" width="9" style="4"/>
+    <col min="10" max="10" width="12.625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" ht="36.75" customHeight="1" spans="1:13">
+    <row r="1" s="2" customFormat="1" ht="36.75" customHeight="1" spans="1:13">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1347,15 +1340,15 @@
       <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="7" t="s">
@@ -1434,8 +1427,8 @@
   <sheetPr/>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>

--- a/education/education-provider/src/main/webapp/templates/供应商.xlsx
+++ b/education/education-provider/src/main/webapp/templates/供应商.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16410" windowHeight="7245" activeTab="1"/>
+    <workbookView windowWidth="24135" windowHeight="13200"/>
   </bookViews>
   <sheets>
     <sheet name="供货商" sheetId="1" r:id="rId1"/>
@@ -289,12 +289,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -462,6 +462,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -476,187 +482,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -775,149 +781,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -933,14 +939,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1300,18 +1303,18 @@
   <sheetPr/>
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J$1:J$1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="25.875" customWidth="1"/>
-    <col min="2" max="2" width="30.375" customWidth="1"/>
+    <col min="1" max="1" width="25.875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="30.375" style="4" customWidth="1"/>
     <col min="3" max="4" width="18.25" style="4"/>
     <col min="5" max="5" width="17.125" style="4"/>
     <col min="6" max="7" width="18.25" style="4"/>
-    <col min="8" max="8" width="9" style="4"/>
+    <col min="8" max="9" width="9" style="4"/>
     <col min="10" max="10" width="12.625" style="4"/>
   </cols>
   <sheetData>
@@ -1340,15 +1343,15 @@
       <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="7" t="s">
@@ -1357,28 +1360,28 @@
       <c r="B2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="10" t="s">
         <v>17</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="9" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1389,28 +1392,28 @@
       <c r="B3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="10" t="s">
         <v>25</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="9" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1427,7 +1430,7 @@
   <sheetPr/>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>

--- a/education/education-provider/src/main/webapp/templates/供应商.xlsx
+++ b/education/education-provider/src/main/webapp/templates/供应商.xlsx
@@ -141,12 +141,25 @@
         </r>
       </text>
     </comment>
+    <comment ref="H1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">自定义编码 不可重复</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
   <si>
     <t>供应商名称</t>
   </si>
@@ -266,10 +279,13 @@
     <t>必填项</t>
   </si>
   <si>
-    <t>3.餐饮服务证号</t>
+    <t>证件号码</t>
   </si>
   <si>
     <t>填写证件号码，五证必须填写一个证件</t>
+  </si>
+  <si>
+    <t>自定义编码 不可重复</t>
   </si>
   <si>
     <t>4.联系人</t>
@@ -290,14 +306,21 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -482,6 +505,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -500,6 +529,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -518,6 +553,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -542,6 +583,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -554,12 +601,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -578,12 +637,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -596,73 +667,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -781,10 +804,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -793,137 +816,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -933,22 +956,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" quotePrefix="1">
@@ -1304,116 +1330,116 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="25.875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="30.375" style="4" customWidth="1"/>
-    <col min="3" max="4" width="18.25" style="4"/>
-    <col min="5" max="5" width="17.125" style="4"/>
-    <col min="6" max="7" width="18.25" style="4"/>
-    <col min="8" max="9" width="9" style="4"/>
-    <col min="10" max="10" width="12.625" style="4"/>
+    <col min="1" max="1" width="25.875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="30.375" style="5" customWidth="1"/>
+    <col min="3" max="4" width="18.25" style="5"/>
+    <col min="5" max="5" width="17.125" style="5"/>
+    <col min="6" max="7" width="18.25" style="5"/>
+    <col min="8" max="9" width="9" style="5"/>
+    <col min="10" max="10" width="12.625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="1" ht="36.75" customHeight="1" spans="1:13">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="10" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="10" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1428,13 +1454,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="32.25" customWidth="1"/>
     <col min="2" max="2" width="67.375" customWidth="1"/>
@@ -1450,7 +1476,7 @@
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C3" s="2"/>
@@ -1464,7 +1490,7 @@
       <c r="A4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C4" s="2"/>
@@ -1472,7 +1498,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="3"/>
+      <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
@@ -1486,35 +1512,49 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="3"/>
+      <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="3"/>
+      <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="3"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/education/education-provider/src/main/webapp/templates/供应商.xlsx
+++ b/education/education-provider/src/main/webapp/templates/供应商.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24135" windowHeight="13200"/>
+    <workbookView windowWidth="23895" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="供货商" sheetId="1" r:id="rId1"/>
@@ -159,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
   <si>
     <t>供应商名称</t>
   </si>
@@ -212,7 +212,7 @@
     <t>489561354138944</t>
   </si>
   <si>
-    <t>1</t>
+    <t>7</t>
   </si>
   <si>
     <t>李峰</t>
@@ -236,7 +236,7 @@
     <t>789541125541235</t>
   </si>
   <si>
-    <t>2</t>
+    <t>8</t>
   </si>
   <si>
     <t>李刚</t>
@@ -267,34 +267,43 @@
     </r>
   </si>
   <si>
-    <t>1.供应商名称</t>
-  </si>
-  <si>
     <t>供应商不能重名。必填项</t>
   </si>
   <si>
-    <t>2.供应商地址</t>
-  </si>
-  <si>
     <t>必填项</t>
   </si>
   <si>
-    <t>证件号码</t>
-  </si>
-  <si>
-    <t>填写证件号码，五证必须填写一个证件</t>
+    <t>餐饮服务证号：</t>
+  </si>
+  <si>
+    <t>食品经营许可证号：</t>
+  </si>
+  <si>
+    <t>食品流通证号：</t>
+  </si>
+  <si>
+    <t>填写证件号码，号码为字母数字。五证必填一证</t>
+  </si>
+  <si>
+    <t>食品生产证号：</t>
+  </si>
+  <si>
+    <t>工商执照号：</t>
+  </si>
+  <si>
+    <t>供应商编码：</t>
   </si>
   <si>
     <t>自定义编码 不可重复</t>
   </si>
   <si>
-    <t>4.联系人</t>
+    <t>联系人：</t>
   </si>
   <si>
     <t>供应商直接联系人</t>
   </si>
   <si>
-    <t>5.电话</t>
+    <t>电话：</t>
   </si>
   <si>
     <t>可手机号及电话号码。</t>
@@ -305,12 +314,26 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="27">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -347,11 +370,79 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -363,16 +454,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -380,105 +472,36 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -505,13 +528,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -523,19 +636,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -547,145 +696,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -696,6 +719,69 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -717,38 +803,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -763,39 +819,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -804,10 +827,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -816,137 +839,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -962,19 +985,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" quotePrefix="1">
@@ -1037,6 +1072,162 @@
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="右大括号 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2486025" y="1771650"/>
+          <a:ext cx="323850" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1330,116 +1521,116 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="25.875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="30.375" style="5" customWidth="1"/>
-    <col min="3" max="4" width="18.25" style="5"/>
-    <col min="5" max="5" width="17.125" style="5"/>
-    <col min="6" max="7" width="18.25" style="5"/>
-    <col min="8" max="9" width="9" style="5"/>
-    <col min="10" max="10" width="12.625" style="5"/>
+    <col min="1" max="1" width="25.875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="30.375" style="9" customWidth="1"/>
+    <col min="3" max="4" width="18.25" style="9"/>
+    <col min="5" max="5" width="17.125" style="9"/>
+    <col min="6" max="7" width="18.25" style="9"/>
+    <col min="8" max="9" width="9" style="9"/>
+    <col min="10" max="10" width="12.625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="1" ht="36.75" customHeight="1" spans="1:13">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="14" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1454,13 +1645,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="32.25" customWidth="1"/>
     <col min="2" max="2" width="67.375" customWidth="1"/>
@@ -1474,10 +1665,10 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -1488,10 +1679,10 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -1501,67 +1692,98 @@
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="A5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="A6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="A7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="A8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
       <c r="H8" s="4"/>
     </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="B7:D7"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/education/education-provider/src/main/webapp/templates/供应商.xlsx
+++ b/education/education-provider/src/main/webapp/templates/供应商.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23895" windowHeight="12210"/>
+    <workbookView windowWidth="23415" windowHeight="11070"/>
   </bookViews>
   <sheets>
     <sheet name="供货商" sheetId="1" r:id="rId1"/>
@@ -159,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
   <si>
     <t>供应商名称</t>
   </si>
@@ -218,7 +218,7 @@
     <t>李峰</t>
   </si>
   <si>
-    <t>13896455694</t>
+    <t>13916566459</t>
   </si>
   <si>
     <t>艺龙食品有限公司</t>
@@ -240,9 +240,6 @@
   </si>
   <si>
     <t>李刚</t>
-  </si>
-  <si>
-    <t>9649756</t>
   </si>
   <si>
     <r>
@@ -319,7 +316,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -330,13 +327,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -407,6 +397,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -478,6 +475,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -485,23 +490,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -528,43 +518,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -576,139 +698,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -802,15 +792,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -819,6 +800,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -827,10 +817,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -839,31 +829,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -884,92 +874,92 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -985,31 +975,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" quotePrefix="1">
@@ -1521,117 +1508,117 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="J1" sqref="I1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="25.875" style="9" customWidth="1"/>
-    <col min="2" max="2" width="30.375" style="9" customWidth="1"/>
-    <col min="3" max="4" width="18.25" style="9"/>
-    <col min="5" max="5" width="17.125" style="9"/>
-    <col min="6" max="7" width="18.25" style="9"/>
-    <col min="8" max="9" width="9" style="9"/>
-    <col min="10" max="10" width="12.625" style="9"/>
+    <col min="1" max="1" width="25.875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="30.375" style="8" customWidth="1"/>
+    <col min="3" max="4" width="18.25" style="8"/>
+    <col min="5" max="5" width="17.125" style="8"/>
+    <col min="6" max="7" width="18.25" style="8"/>
+    <col min="8" max="9" width="9" style="8"/>
+    <col min="10" max="10" width="12.625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="1" ht="36.75" customHeight="1" spans="1:13">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="11" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="14" t="s">
-        <v>27</v>
+      <c r="J3" s="11" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1648,7 +1635,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B11" sqref="B11:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1659,7 +1646,7 @@
   <sheetData>
     <row r="1" ht="93.75" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1"/>
     </row>
@@ -1668,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -1682,7 +1669,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -1692,88 +1679,88 @@
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
+      <c r="A5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
+      <c r="A6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
+      <c r="A8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
+      <c r="A9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
